--- a/charts/chartdata.xlsx
+++ b/charts/chartdata.xlsx
@@ -8,44 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b53d5d4b50337fb/Documents/CUNY/matrix-multiplication/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F262B0E3-8B58-E945-9056-66CA27BB388E}"/>
   <bookViews>
     <workbookView xWindow="6580" yWindow="500" windowWidth="21400" windowHeight="17500" xr2:uid="{50D41231-1AC9-314E-B928-DD39809BD5E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Operations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$17:$B$27</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Operations!$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Operations!$A$17:$A$27</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Operations!$C$16</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Operations!$C$17:$C$27</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Operations!$A$16</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Operations!$A$17:$A$27</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Operations!$B$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Operations!$B$17:$B$27</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Operations!$C$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Operations!$C$17:$C$27</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Operations!$A$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Operations!$A$17:$A$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Operations!$B$16</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Operations!$B$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Operations!$B$17:$B$27</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Operations!$C$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Operations!$C$17:$C$27</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Operations!$A$16</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Operations!$A$17:$A$27</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Operations!$B$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Operations!$B$17:$B$27</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Operations!$C$16</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Operations!$C$17:$C$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Operations!$B$17:$B$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Operations!$C$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Operations!$C$17:$C$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Operations!$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Operations!$A$17:$A$27</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Operations!$B$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Operations!$B$17:$B$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -261,7 +261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$16</c:f>
+              <c:f>Operations!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -284,7 +284,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$17:$A$27</c:f>
+              <c:f>Operations!$A$17:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -326,7 +326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$27</c:f>
+              <c:f>Operations!$B$17:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -378,7 +378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Operations!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -401,7 +401,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$17:$A$27</c:f>
+              <c:f>Operations!$A$17:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -443,7 +443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$27</c:f>
+              <c:f>Operations!$C$17:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -876,7 +876,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$16</c:f>
+              <c:f>Operations!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,7 +899,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$31:$A$41</c:f>
+              <c:f>Operations!$A$31:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -941,7 +941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$41</c:f>
+              <c:f>Operations!$B$31:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -993,7 +993,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Operations!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1016,7 +1016,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$31:$A$41</c:f>
+              <c:f>Operations!$A$31:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1058,7 +1058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$41</c:f>
+              <c:f>Operations!$C$31:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1491,7 +1491,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$16</c:f>
+              <c:f>Operations!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1514,7 +1514,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$45:$A$55</c:f>
+              <c:f>Operations!$A$45:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1556,7 +1556,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$B$55</c:f>
+              <c:f>Operations!$B$45:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1608,7 +1608,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Operations!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,7 +1631,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$45:$A$55</c:f>
+              <c:f>Operations!$A$45:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1673,7 +1673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$C$55</c:f>
+              <c:f>Operations!$C$45:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4111,7 +4111,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/charts/chartdata.xlsx
+++ b/charts/chartdata.xlsx
@@ -1,53 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b53d5d4b50337fb/Documents/CUNY/matrix-multiplication/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F262B0E3-8B58-E945-9056-66CA27BB388E}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BFCA08-E0F7-6448-887A-E82A1053B1F6}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="500" windowWidth="21400" windowHeight="17500" xr2:uid="{50D41231-1AC9-314E-B928-DD39809BD5E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13780" windowHeight="17500" xr2:uid="{50D41231-1AC9-314E-B928-DD39809BD5E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Operations" sheetId="1" r:id="rId1"/>
+    <sheet name="n=2^k" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Operations!$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Operations!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Operations!$C$16</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Operations!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Operations!$A$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Operations!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Operations!$B$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Operations!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Operations!$C$16</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Operations!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Operations!$A$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Operations!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Operations!$B$16</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Operations!$B$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Operations!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Operations!$C$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Operations!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Operations!$A$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Operations!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Operations!$B$16</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Operations!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Operations!$C$16</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Operations!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Operations!$B$17:$B$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Operations!$C$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Operations!$C$17:$C$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Operations!$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Operations!$A$17:$A$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Operations!$B$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Operations!$B$17:$B$27</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Direct</t>
   </si>
@@ -79,27 +47,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>+ (D)</t>
-  </si>
-  <si>
-    <t>+ (S)</t>
-  </si>
-  <si>
-    <t>* (S)</t>
-  </si>
-  <si>
-    <t>* (D)</t>
-  </si>
-  <si>
-    <t>Tot (D)</t>
-  </si>
-  <si>
-    <t>Tot (S)</t>
-  </si>
-  <si>
-    <t>n=2^k</t>
-  </si>
-  <si>
     <t>Additions</t>
   </si>
   <si>
@@ -107,6 +54,12 @@
   </si>
   <si>
     <t>Total Operations</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Runtime (one execution; results may vary)</t>
   </si>
 </sst>
 </file>
@@ -158,11 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +213,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$B$16</c:f>
+              <c:f>'n=2^k'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -284,10 +236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$17:$A$27</c:f>
+              <c:f>'n=2^k'!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -320,16 +272,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$B$17:$B$27</c:f>
+              <c:f>'n=2^k'!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -362,6 +317,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1072693248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8585740288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,7 +336,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$C$16</c:f>
+              <c:f>'n=2^k'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -401,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$17:$A$27</c:f>
+              <c:f>'n=2^k'!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -437,16 +395,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$C$17:$C$27</c:f>
+              <c:f>'n=2^k'!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -479,6 +440,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1688560038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11838794634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,6 +451,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA47-D04D-9C46-0CC5F2A9A49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2080768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16711680</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133955584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>942407680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6615728128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B946-1B45-A20C-E0B4E6977819}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -876,7 +963,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$B$16</c:f>
+              <c:f>'n=2^k'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,10 +986,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$31:$A$41</c:f>
+              <c:f>'n=2^k'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -935,16 +1022,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$B$31:$B$41</c:f>
+              <c:f>'n=2^k'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -977,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8589934592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1086,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$C$16</c:f>
+              <c:f>'n=2^k'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1016,10 +1109,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$31:$A$41</c:f>
+              <c:f>'n=2^k'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,16 +1145,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$C$31:$C$41</c:f>
+              <c:f>'n=2^k'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1094,6 +1190,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>282475249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1977326743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,6 +1201,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6A4-3B47-9130-A0B4CEBC1311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$18:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$D$18:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>939524096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6576668672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5BB-4145-A531-C595D9C3C38A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,7 +1713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$B$16</c:f>
+              <c:f>'n=2^k'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1514,10 +1736,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$45:$A$55</c:f>
+              <c:f>'n=2^k'!$A$33:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1550,16 +1772,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$B$45:$B$55</c:f>
+              <c:f>'n=2^k'!$B$33:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1592,6 +1817,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2146435072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17175674880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,7 +1836,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Operations!$C$16</c:f>
+              <c:f>'n=2^k'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,10 +1859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Operations!$A$45:$A$55</c:f>
+              <c:f>'n=2^k'!$A$33:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1667,16 +1895,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Operations!$C$45:$C$55</c:f>
+              <c:f>'n=2^k'!$C$33:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1709,6 +1940,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1971035287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13816121377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,6 +1951,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CD63-FA4B-B7AC-333900162397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$33:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$D$33:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4177920</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33488896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268173312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1881931776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13192396800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BAB-6B43-9531-BEE1D0CB2D32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1881,7 +2238,757 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Multiplications</a:t>
+                  <a:t>Total Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495388127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$48:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$B$48:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22448</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8530-5549-A32B-09CF85798264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strassen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$48:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$C$48:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>918996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8530-5549-A32B-09CF85798264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n=2^k'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'n=2^k'!$A$48:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n=2^k'!$D$48:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8530-5549-A32B-09CF85798264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="495388127"/>
+        <c:axId val="489305279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="495388127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k=log_2(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489305279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489305279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2146,6 +3253,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3179,6 +4326,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3700,13 +5363,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3736,13 +5399,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3774,13 +5437,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3808,7 +5471,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6C3FEA-A765-8346-B5C3-38CADFBB3C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4108,812 +5813,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF0E2E5-7E35-5742-BD68-853F5AB1A1CF}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <f>SUM(C3:D3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <f>SUM(F3:G3)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM(C4:D4)</f>
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H13" si="0">SUM(F4:G4)</f>
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="B5">
+        <v>48</v>
       </c>
       <c r="C5">
+        <v>198</v>
+      </c>
+      <c r="D5">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM(C5:D5)</f>
-        <v>112</v>
-      </c>
-      <c r="F5">
-        <v>198</v>
-      </c>
-      <c r="G5">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>8</v>
+      <c r="B6">
+        <v>448</v>
       </c>
       <c r="C6">
+        <v>1674</v>
+      </c>
+      <c r="D6">
         <v>448</v>
       </c>
-      <c r="D6">
-        <v>512</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM(C6:D6)</f>
-        <v>960</v>
-      </c>
-      <c r="F6">
-        <v>1674</v>
-      </c>
-      <c r="G6">
-        <v>343</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>16</v>
+      <c r="B7">
+        <v>3840</v>
       </c>
       <c r="C7">
+        <v>12870</v>
+      </c>
+      <c r="D7">
         <v>3840</v>
       </c>
-      <c r="D7">
-        <v>4096</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM(C7:D7)</f>
-        <v>7936</v>
-      </c>
-      <c r="F7">
-        <v>12870</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G13" si="1">7*G6</f>
-        <v>2401</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>15271</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>32</v>
+      <c r="B8">
+        <v>31744</v>
       </c>
       <c r="C8">
+        <v>94698</v>
+      </c>
+      <c r="D8">
         <v>31744</v>
       </c>
-      <c r="D8">
-        <v>32768</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(C8:D8)</f>
-        <v>64512</v>
-      </c>
-      <c r="F8">
-        <v>94698</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>16807</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>111505</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>64</v>
+      <c r="B9">
+        <v>258048</v>
       </c>
       <c r="C9">
+        <v>681318</v>
+      </c>
+      <c r="D9">
         <v>258048</v>
       </c>
-      <c r="D9">
-        <v>262144</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(C9:D9)</f>
-        <v>520192</v>
-      </c>
-      <c r="F9">
-        <v>681318</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>117649</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>798967</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>128</v>
+      <c r="B10">
+        <v>2080768</v>
       </c>
       <c r="C10">
+        <v>4842954</v>
+      </c>
+      <c r="D10">
         <v>2080768</v>
       </c>
-      <c r="D10">
-        <v>2097152</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(C10:D10)</f>
-        <v>4177920</v>
-      </c>
-      <c r="F10">
-        <v>4842954</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>823543</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>5666497</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>256</v>
+      <c r="B11">
+        <v>16711680</v>
       </c>
       <c r="C11">
+        <v>34195590</v>
+      </c>
+      <c r="D11">
         <v>16711680</v>
-      </c>
-      <c r="D11">
-        <v>16777216</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(C11:D11)</f>
-        <v>33488896</v>
-      </c>
-      <c r="F11">
-        <v>34195590</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>5764801</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>39960391</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>512</v>
+      <c r="B12">
+        <v>133955584</v>
       </c>
       <c r="C12">
+        <v>240548778</v>
+      </c>
+      <c r="D12">
         <v>133955584</v>
-      </c>
-      <c r="D12">
-        <v>134217728</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(C12:D12)</f>
-        <v>268173312</v>
-      </c>
-      <c r="F12">
-        <v>240548778</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>40353607</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>280902385</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>1024</v>
+      <c r="B13">
+        <v>1072693248</v>
       </c>
       <c r="C13">
-        <v>1072693248</v>
+        <v>1688560038</v>
       </c>
       <c r="D13">
-        <v>1073741824</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(C13:D13)</f>
-        <v>2146435072</v>
-      </c>
-      <c r="F13">
-        <v>1688560038</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>282475249</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>1971035287</v>
+        <v>942407680</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="2"/>
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>8585740288</v>
+      </c>
+      <c r="C14">
+        <v>11838794634</v>
+      </c>
+      <c r="D14">
+        <v>6615728128</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>512</v>
+      </c>
+      <c r="C21">
+        <v>343</v>
+      </c>
+      <c r="D21">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4096</v>
+      </c>
+      <c r="C22">
+        <v>2401</v>
+      </c>
+      <c r="D22">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>32768</v>
+      </c>
+      <c r="C23">
+        <v>16807</v>
+      </c>
+      <c r="D23">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>262144</v>
+      </c>
+      <c r="C24">
+        <v>117649</v>
+      </c>
+      <c r="D24">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2097152</v>
+      </c>
+      <c r="C25">
+        <v>823543</v>
+      </c>
+      <c r="D25">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>16777216</v>
+      </c>
+      <c r="C26">
+        <v>5764801</v>
+      </c>
+      <c r="D26">
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>134217728</v>
+      </c>
+      <c r="C27">
+        <v>40353607</v>
+      </c>
+      <c r="D27">
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1073741824</v>
+      </c>
+      <c r="C28">
+        <v>282475249</v>
+      </c>
+      <c r="D28">
+        <v>939524096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>8589934592</v>
+      </c>
+      <c r="C29">
+        <v>1977326743</v>
+      </c>
+      <c r="D29">
+        <v>6576668672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>0</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>112</v>
+      </c>
+      <c r="C35">
+        <v>247</v>
+      </c>
+      <c r="D35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>960</v>
+      </c>
+      <c r="C36">
+        <v>2017</v>
+      </c>
+      <c r="D36">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>18</v>
+      <c r="B37">
+        <v>7936</v>
+      </c>
+      <c r="C37">
+        <v>15271</v>
+      </c>
+      <c r="D37">
+        <v>7936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>64512</v>
+      </c>
+      <c r="C38">
+        <v>111505</v>
+      </c>
+      <c r="D38">
+        <v>64512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>520192</v>
+      </c>
+      <c r="C39">
+        <v>798967</v>
+      </c>
+      <c r="D39">
+        <v>520192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>4177920</v>
+      </c>
+      <c r="C40">
+        <v>5666497</v>
+      </c>
+      <c r="D40">
+        <v>4177920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>33488896</v>
+      </c>
+      <c r="C41">
+        <v>39960391</v>
+      </c>
+      <c r="D41">
+        <v>33488896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>268173312</v>
+      </c>
+      <c r="C42">
+        <v>280902385</v>
+      </c>
+      <c r="D42">
+        <v>268173312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>2146435072</v>
+      </c>
+      <c r="C43">
+        <v>1971035287</v>
+      </c>
+      <c r="D43">
+        <v>1881931776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>17175674880</v>
+      </c>
+      <c r="C44">
+        <v>13816121377</v>
+      </c>
+      <c r="D44">
+        <v>13192396800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>198</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="2"/>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>448</v>
-      </c>
-      <c r="C20">
-        <v>1674</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>4</v>
       </c>
-      <c r="B21">
-        <v>3840</v>
-      </c>
-      <c r="C21">
-        <v>12870</v>
-      </c>
-      <c r="H21" s="2"/>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>5</v>
       </c>
-      <c r="B22">
-        <v>31744</v>
-      </c>
-      <c r="C22">
-        <v>94698</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>258048</v>
-      </c>
-      <c r="C23">
-        <v>681318</v>
-      </c>
-      <c r="H23" s="2"/>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>201</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B24">
-        <v>2080768</v>
-      </c>
-      <c r="C24">
-        <v>4842954</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>409</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>16711680</v>
-      </c>
-      <c r="C25">
-        <v>34195590</v>
+      <c r="B56">
+        <v>306</v>
+      </c>
+      <c r="C56">
+        <v>2716</v>
+      </c>
+      <c r="D56">
+        <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>9</v>
       </c>
-      <c r="B26">
-        <v>133955584</v>
-      </c>
-      <c r="C26">
-        <v>240548778</v>
+      <c r="B57">
+        <v>2438</v>
+      </c>
+      <c r="C57">
+        <v>19025</v>
+      </c>
+      <c r="D57">
+        <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>10</v>
       </c>
-      <c r="B27">
-        <v>1072693248</v>
-      </c>
-      <c r="C27">
-        <v>1688560038</v>
+      <c r="B58">
+        <v>22448</v>
+      </c>
+      <c r="C58">
+        <v>129618</v>
+      </c>
+      <c r="D58">
+        <v>16094</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>64</v>
-      </c>
-      <c r="C33">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>512</v>
-      </c>
-      <c r="C34">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>4096</v>
-      </c>
-      <c r="C35">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>32768</v>
-      </c>
-      <c r="C36">
-        <v>16807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>262144</v>
-      </c>
-      <c r="C37">
-        <v>117649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>2097152</v>
-      </c>
-      <c r="C38">
-        <v>823543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>16777216</v>
-      </c>
-      <c r="C39">
-        <v>5764801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>134217728</v>
-      </c>
-      <c r="C40">
-        <v>40353607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>1073741824</v>
-      </c>
-      <c r="C41">
-        <v>282475249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3">
-        <v>112</v>
-      </c>
-      <c r="C47">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3">
-        <v>960</v>
-      </c>
-      <c r="C48">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3">
-        <v>7936</v>
-      </c>
-      <c r="C49">
-        <v>15271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>5</v>
-      </c>
-      <c r="B50" s="3">
-        <v>64512</v>
-      </c>
-      <c r="C50">
-        <v>111505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>6</v>
-      </c>
-      <c r="B51" s="3">
-        <v>520192</v>
-      </c>
-      <c r="C51">
-        <v>798967</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3">
-        <v>4177920</v>
-      </c>
-      <c r="C52">
-        <v>5666497</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>8</v>
-      </c>
-      <c r="B53" s="3">
-        <v>33488896</v>
-      </c>
-      <c r="C53">
-        <v>39960391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>9</v>
-      </c>
-      <c r="B54" s="3">
-        <v>268173312</v>
-      </c>
-      <c r="C54">
-        <v>280902385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3">
-        <v>2146435072</v>
-      </c>
-      <c r="C55">
-        <v>1971035287</v>
+      <c r="B59">
+        <v>206743</v>
+      </c>
+      <c r="C59">
+        <v>918996</v>
+      </c>
+      <c r="D59">
+        <v>130935</v>
       </c>
     </row>
   </sheetData>

--- a/charts/chartdata.xlsx
+++ b/charts/chartdata.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b53d5d4b50337fb/Documents/CUNY/matrix-multiplication/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BFCA08-E0F7-6448-887A-E82A1053B1F6}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="8_{789D5A4D-32CF-944F-8736-A7A558B9D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA57B20-8E0A-5543-BC55-36E22C910F29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13780" windowHeight="17500" xr2:uid="{50D41231-1AC9-314E-B928-DD39809BD5E5}"/>
+    <workbookView xWindow="17160" yWindow="500" windowWidth="11640" windowHeight="17500" firstSheet="2" activeTab="4" xr2:uid="{50D41231-1AC9-314E-B928-DD39809BD5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="n=2^k" sheetId="1" r:id="rId1"/>
+    <sheet name="Report-Base" sheetId="3" r:id="rId2"/>
+    <sheet name="Report-Extra 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Report-New Extra" sheetId="5" r:id="rId4"/>
+    <sheet name="Report-Extra 2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Direct</t>
   </si>
@@ -56,10 +60,52 @@
     <t>Total Operations</t>
   </si>
   <si>
-    <t>Hybrid</t>
+    <t>Runtime (one execution; results may vary)</t>
   </si>
   <si>
-    <t>Runtime (one execution; results may vary)</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Runtime (ms)</t>
+  </si>
+  <si>
+    <t>D Operations</t>
+  </si>
+  <si>
+    <t>S Operations</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Hybrid (H_3)</t>
+  </si>
+  <si>
+    <t>H_3 Operations</t>
+  </si>
+  <si>
+    <t>n = 2^k + 1</t>
+  </si>
+  <si>
+    <t>n = 2^(k+1) - 1</t>
+  </si>
+  <si>
+    <t>Direct Operations</t>
+  </si>
+  <si>
+    <t>Strassen Operations</t>
+  </si>
+  <si>
+    <t>Comparison w/ Hybrid when n = 2^k</t>
+  </si>
+  <si>
+    <t>Best Algorithm</t>
+  </si>
+  <si>
+    <t>Hybrid with Varying Thresholds when n=1024</t>
   </si>
 </sst>
 </file>
@@ -111,11 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +510,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid</c:v>
+                  <c:v>Hybrid (H_3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -544,28 +591,28 @@
                   <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3840</c:v>
+                  <c:v>4288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31744</c:v>
+                  <c:v>34624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258048</c:v>
+                  <c:v>260800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2080768</c:v>
+                  <c:v>1899328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16711680</c:v>
+                  <c:v>13590208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133955584</c:v>
+                  <c:v>96311104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>942407680</c:v>
+                  <c:v>678896320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6615728128</c:v>
+                  <c:v>4771148608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid</c:v>
+                  <c:v>Hybrid (H_3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1294,28 +1341,28 @@
                   <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4096</c:v>
+                  <c:v>3584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32768</c:v>
+                  <c:v>25088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>262144</c:v>
+                  <c:v>175616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2097152</c:v>
+                  <c:v>1229312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16777216</c:v>
+                  <c:v>8605184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134217728</c:v>
+                  <c:v>60236288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>939524096</c:v>
+                  <c:v>421654016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6576668672</c:v>
+                  <c:v>2951578112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,7 +2010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid</c:v>
+                  <c:v>Hybrid (H_3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2044,28 +2091,28 @@
                   <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7936</c:v>
+                  <c:v>7872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64512</c:v>
+                  <c:v>59712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>520192</c:v>
+                  <c:v>436416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4177920</c:v>
+                  <c:v>3128640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33488896</c:v>
+                  <c:v>22195392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>268173312</c:v>
+                  <c:v>156547392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1881931776</c:v>
+                  <c:v>1100550336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13192396800</c:v>
+                  <c:v>7722726720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,10 +2589,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2554,22 +2601,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2438</c:v>
+                  <c:v>2180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22448</c:v>
+                  <c:v>24323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>206743</c:v>
+                  <c:v>234245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,34 +2712,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2716</c:v>
+                  <c:v>2306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19025</c:v>
+                  <c:v>17971</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129618</c:v>
+                  <c:v>140610</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>918996</c:v>
+                  <c:v>918162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid</c:v>
+                  <c:v>Hybrid (H_3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2791,7 +2838,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2800,22 +2847,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>287</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2400</c:v>
+                  <c:v>2686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16094</c:v>
+                  <c:v>20841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130935</c:v>
+                  <c:v>180194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5512,10 +5559,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5815,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF0E2E5-7E35-5742-BD68-853F5AB1A1CF}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5845,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -5921,7 +5964,7 @@
         <v>12870</v>
       </c>
       <c r="D7">
-        <v>3840</v>
+        <v>4288</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -5936,7 +5979,7 @@
         <v>94698</v>
       </c>
       <c r="D8">
-        <v>31744</v>
+        <v>34624</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -5951,7 +5994,7 @@
         <v>681318</v>
       </c>
       <c r="D9">
-        <v>258048</v>
+        <v>260800</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -5966,7 +6009,7 @@
         <v>4842954</v>
       </c>
       <c r="D10">
-        <v>2080768</v>
+        <v>1899328</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -5981,7 +6024,7 @@
         <v>34195590</v>
       </c>
       <c r="D11">
-        <v>16711680</v>
+        <v>13590208</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5995,7 +6038,7 @@
         <v>240548778</v>
       </c>
       <c r="D12">
-        <v>133955584</v>
+        <v>96311104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6009,7 +6052,7 @@
         <v>1688560038</v>
       </c>
       <c r="D13">
-        <v>942407680</v>
+        <v>678896320</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6023,7 +6066,7 @@
         <v>11838794634</v>
       </c>
       <c r="D14">
-        <v>6615728128</v>
+        <v>4771148608</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6044,8 +6087,8 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6115,7 +6158,7 @@
         <v>2401</v>
       </c>
       <c r="D22">
-        <v>4096</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6129,7 +6172,7 @@
         <v>16807</v>
       </c>
       <c r="D23">
-        <v>32768</v>
+        <v>25088</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6143,7 +6186,7 @@
         <v>117649</v>
       </c>
       <c r="D24">
-        <v>262144</v>
+        <v>175616</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6157,7 +6200,7 @@
         <v>823543</v>
       </c>
       <c r="D25">
-        <v>2097152</v>
+        <v>1229312</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6171,7 +6214,7 @@
         <v>5764801</v>
       </c>
       <c r="D26">
-        <v>16777216</v>
+        <v>8605184</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6185,7 +6228,7 @@
         <v>40353607</v>
       </c>
       <c r="D27">
-        <v>134217728</v>
+        <v>60236288</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6199,7 +6242,7 @@
         <v>282475249</v>
       </c>
       <c r="D28">
-        <v>939524096</v>
+        <v>421654016</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6213,7 +6256,7 @@
         <v>1977326743</v>
       </c>
       <c r="D29">
-        <v>6576668672</v>
+        <v>2951578112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,8 +6274,8 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6246,6 +6289,7 @@
         <v>1</v>
       </c>
       <c r="D33">
+        <f>SUM(D3,D18)</f>
         <v>1</v>
       </c>
     </row>
@@ -6260,6 +6304,7 @@
         <v>25</v>
       </c>
       <c r="D34">
+        <f t="shared" ref="D34:D43" si="0">SUM(D4,D19)</f>
         <v>12</v>
       </c>
     </row>
@@ -6274,6 +6319,7 @@
         <v>247</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
@@ -6288,6 +6334,7 @@
         <v>2017</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
     </row>
@@ -6302,7 +6349,8 @@
         <v>15271</v>
       </c>
       <c r="D37">
-        <v>7936</v>
+        <f t="shared" si="0"/>
+        <v>7872</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6316,7 +6364,8 @@
         <v>111505</v>
       </c>
       <c r="D38">
-        <v>64512</v>
+        <f t="shared" si="0"/>
+        <v>59712</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6330,7 +6379,8 @@
         <v>798967</v>
       </c>
       <c r="D39">
-        <v>520192</v>
+        <f t="shared" si="0"/>
+        <v>436416</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6344,7 +6394,8 @@
         <v>5666497</v>
       </c>
       <c r="D40">
-        <v>4177920</v>
+        <f t="shared" si="0"/>
+        <v>3128640</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6358,7 +6409,8 @@
         <v>39960391</v>
       </c>
       <c r="D41">
-        <v>33488896</v>
+        <f t="shared" si="0"/>
+        <v>22195392</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -6372,7 +6424,8 @@
         <v>280902385</v>
       </c>
       <c r="D42">
-        <v>268173312</v>
+        <f t="shared" si="0"/>
+        <v>156547392</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -6386,7 +6439,8 @@
         <v>1971035287</v>
       </c>
       <c r="D43">
-        <v>1881931776</v>
+        <f t="shared" si="0"/>
+        <v>1100550336</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -6400,12 +6454,12 @@
         <v>13816121377</v>
       </c>
       <c r="D44">
-        <v>13192396800</v>
+        <v>7722726720</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -6455,10 +6509,10 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6469,13 +6523,13 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6486,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6500,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -6511,13 +6565,13 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,13 +6579,13 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6539,13 +6593,13 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="C56">
-        <v>2716</v>
+        <v>2306</v>
       </c>
       <c r="D56">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,13 +6607,13 @@
         <v>9</v>
       </c>
       <c r="B57">
-        <v>2438</v>
+        <v>2180</v>
       </c>
       <c r="C57">
-        <v>19025</v>
+        <v>17971</v>
       </c>
       <c r="D57">
-        <v>2400</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,13 +6621,13 @@
         <v>10</v>
       </c>
       <c r="B58">
-        <v>22448</v>
+        <v>24323</v>
       </c>
       <c r="C58">
-        <v>129618</v>
+        <v>140610</v>
       </c>
       <c r="D58">
-        <v>16094</v>
+        <v>20841</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6581,13 +6635,13 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>206743</v>
+        <v>234245</v>
       </c>
       <c r="C59">
-        <v>918996</v>
+        <v>918162</v>
       </c>
       <c r="D59">
-        <v>130935</v>
+        <v>180194</v>
       </c>
     </row>
   </sheetData>
@@ -6595,4 +6649,1374 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76A08A-6E4B-354C-8E83-D8DCA89BAF56}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>448</v>
+      </c>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>960</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3840</v>
+      </c>
+      <c r="C7">
+        <v>4096</v>
+      </c>
+      <c r="D7">
+        <v>7936</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>31744</v>
+      </c>
+      <c r="C8">
+        <v>32768</v>
+      </c>
+      <c r="D8">
+        <v>64512</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>258048</v>
+      </c>
+      <c r="C9">
+        <v>262144</v>
+      </c>
+      <c r="D9">
+        <v>520192</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>2080768</v>
+      </c>
+      <c r="C10">
+        <v>2097152</v>
+      </c>
+      <c r="D10">
+        <v>4177920</v>
+      </c>
+      <c r="E10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>256</v>
+      </c>
+      <c r="B11">
+        <v>16711680</v>
+      </c>
+      <c r="C11">
+        <v>16777216</v>
+      </c>
+      <c r="D11">
+        <v>33488896</v>
+      </c>
+      <c r="E11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>512</v>
+      </c>
+      <c r="B12">
+        <v>133955584</v>
+      </c>
+      <c r="C12">
+        <v>134217728</v>
+      </c>
+      <c r="D12">
+        <v>268173312</v>
+      </c>
+      <c r="E12">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1024</v>
+      </c>
+      <c r="B13">
+        <v>1072693248</v>
+      </c>
+      <c r="C13">
+        <v>1073741824</v>
+      </c>
+      <c r="D13">
+        <v>2146435072</v>
+      </c>
+      <c r="E13">
+        <v>22448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2048</v>
+      </c>
+      <c r="B14">
+        <v>8585740288</v>
+      </c>
+      <c r="C14">
+        <v>8589934592</v>
+      </c>
+      <c r="D14">
+        <v>17175674880</v>
+      </c>
+      <c r="E14">
+        <v>206743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>198</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>247</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1674</v>
+      </c>
+      <c r="C20">
+        <v>343</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>12870</v>
+      </c>
+      <c r="C21">
+        <v>2401</v>
+      </c>
+      <c r="D21">
+        <v>15271</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>94698</v>
+      </c>
+      <c r="C22">
+        <v>16807</v>
+      </c>
+      <c r="D22">
+        <v>111505</v>
+      </c>
+      <c r="E22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>681318</v>
+      </c>
+      <c r="C23">
+        <v>117649</v>
+      </c>
+      <c r="D23">
+        <v>798967</v>
+      </c>
+      <c r="E23">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>4842954</v>
+      </c>
+      <c r="C24">
+        <v>823543</v>
+      </c>
+      <c r="D24">
+        <v>5666497</v>
+      </c>
+      <c r="E24">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <v>34195590</v>
+      </c>
+      <c r="C25">
+        <v>5764801</v>
+      </c>
+      <c r="D25">
+        <v>39960391</v>
+      </c>
+      <c r="E25">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>512</v>
+      </c>
+      <c r="B26">
+        <v>240548778</v>
+      </c>
+      <c r="C26">
+        <v>40353607</v>
+      </c>
+      <c r="D26">
+        <v>280902385</v>
+      </c>
+      <c r="E26">
+        <v>19025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27">
+        <v>1688560038</v>
+      </c>
+      <c r="C27">
+        <v>282475249</v>
+      </c>
+      <c r="D27">
+        <v>1971035287</v>
+      </c>
+      <c r="E27">
+        <v>129618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2048</v>
+      </c>
+      <c r="B28">
+        <v>11838794634</v>
+      </c>
+      <c r="C28">
+        <v>1977326743</v>
+      </c>
+      <c r="D28">
+        <v>13816121377</v>
+      </c>
+      <c r="E28">
+        <v>918996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026D18F-C2AC-2C48-B27F-7B864A1F3F80}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>960</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
+      </c>
+      <c r="E6">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>7936</v>
+      </c>
+      <c r="D7">
+        <v>15271</v>
+      </c>
+      <c r="E7">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>64512</v>
+      </c>
+      <c r="D8">
+        <v>111505</v>
+      </c>
+      <c r="E8">
+        <v>59712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>520192</v>
+      </c>
+      <c r="D9">
+        <v>798967</v>
+      </c>
+      <c r="E9">
+        <v>436416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>4177920</v>
+      </c>
+      <c r="D10">
+        <v>5666497</v>
+      </c>
+      <c r="E10">
+        <v>3128640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>256</v>
+      </c>
+      <c r="C11">
+        <v>33488896</v>
+      </c>
+      <c r="D11">
+        <v>39960391</v>
+      </c>
+      <c r="E11">
+        <v>22195392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>512</v>
+      </c>
+      <c r="C12">
+        <v>268173312</v>
+      </c>
+      <c r="D12">
+        <v>280902385</v>
+      </c>
+      <c r="E12">
+        <v>156547392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1024</v>
+      </c>
+      <c r="C13">
+        <v>2146435072</v>
+      </c>
+      <c r="D13">
+        <v>1971035287</v>
+      </c>
+      <c r="E13">
+        <v>1100550336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2048</v>
+      </c>
+      <c r="C14">
+        <v>17175674880</v>
+      </c>
+      <c r="D14">
+        <v>13816121377</v>
+      </c>
+      <c r="E14">
+        <v>7722726720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9C4AED-E377-4944-9D9F-FFEB4A7C0094}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1971035287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1446438396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1192787152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1100550336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1108079872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1181223936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1301696512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1460453376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1653932032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1881931776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2146435072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F79A0F-1838-4746-AA66-0B1956BDA3CB}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(E3=MIN($C3:$E3),"H",IF(C3=MIN($C3:$E3),"D","S"))</f>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G27" si="0">IF(E4=MIN($C4:$E4),"H",IF(C4=MIN($C4:$E4),"D","S"))</f>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>225</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5">
+        <v>225</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1377</v>
+      </c>
+      <c r="D6">
+        <v>15271</v>
+      </c>
+      <c r="E6">
+        <v>7872</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>9537</v>
+      </c>
+      <c r="D7">
+        <v>111505</v>
+      </c>
+      <c r="E7">
+        <v>59712</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>70785</v>
+      </c>
+      <c r="D8">
+        <v>798967</v>
+      </c>
+      <c r="E8">
+        <v>436416</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>545025</v>
+      </c>
+      <c r="D9">
+        <v>5666497</v>
+      </c>
+      <c r="E9">
+        <v>3128640</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>4276737</v>
+      </c>
+      <c r="D10">
+        <v>39960391</v>
+      </c>
+      <c r="E10">
+        <v>22195392</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(E10=MIN($C10:$E10),"H",IF(C10=MIN($C10:$E10),"D","S"))</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>257</v>
+      </c>
+      <c r="C11">
+        <v>33883137</v>
+      </c>
+      <c r="D11">
+        <v>280902385</v>
+      </c>
+      <c r="E11">
+        <v>156547392</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>513</v>
+      </c>
+      <c r="C12">
+        <v>269748225</v>
+      </c>
+      <c r="D12">
+        <v>1971035287</v>
+      </c>
+      <c r="E12">
+        <v>1100550336</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1025</v>
+      </c>
+      <c r="C13">
+        <v>2152730625</v>
+      </c>
+      <c r="D13">
+        <v>13816121377</v>
+      </c>
+      <c r="E13">
+        <v>7722726720</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>247</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>637</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19">
+        <v>637</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>6525</v>
+      </c>
+      <c r="D20">
+        <v>15271</v>
+      </c>
+      <c r="E20">
+        <v>7872</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>58621</v>
+      </c>
+      <c r="D21">
+        <v>111505</v>
+      </c>
+      <c r="E21">
+        <v>59712</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>496125</v>
+      </c>
+      <c r="D22">
+        <v>798967</v>
+      </c>
+      <c r="E22">
+        <v>436416</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>4080637</v>
+      </c>
+      <c r="D23">
+        <v>5666497</v>
+      </c>
+      <c r="E23">
+        <v>3128640</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>255</v>
+      </c>
+      <c r="C24">
+        <v>33097725</v>
+      </c>
+      <c r="D24">
+        <v>39960391</v>
+      </c>
+      <c r="E24">
+        <v>22195392</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>511</v>
+      </c>
+      <c r="C25">
+        <v>266604541</v>
+      </c>
+      <c r="D25">
+        <v>280902385</v>
+      </c>
+      <c r="E25">
+        <f>156547392</f>
+        <v>156547392</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1023</v>
+      </c>
+      <c r="C26">
+        <v>2140151805</v>
+      </c>
+      <c r="D26">
+        <v>1971035287</v>
+      </c>
+      <c r="E26">
+        <v>1100550336</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2047</v>
+      </c>
+      <c r="C27">
+        <v>17150525437</v>
+      </c>
+      <c r="D27">
+        <v>13816121377</v>
+      </c>
+      <c r="E27">
+        <f>7722726720</f>
+        <v>7722726720</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>